--- a/data/Data trimestral 1950 a 2023 con DUMMIES outliers.xlsx
+++ b/data/Data trimestral 1950 a 2023 con DUMMIES outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628426A0-5244-AC42-B157-84D8F6C31F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B1D25-724F-BA4E-A1F9-A9E9E1FD18A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="21100" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -6623,7 +6623,7 @@
         <v>95.063609999999997</v>
       </c>
       <c r="M154" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="7">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>95.418700000000001</v>
       </c>
       <c r="M157" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157" s="7">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="N158" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="N165" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14">
